--- a/settings/data/Dialog.xlsx
+++ b/settings/data/Dialog.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F41233-1552-4BEE-89EE-E16F7154D07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2532" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="dialog_s1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>string</t>
   </si>
@@ -48,6 +45,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">方位
 </t>
     </r>
@@ -56,7 +60,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -65,27 +68,212 @@
     </r>
   </si>
   <si>
+    <t>内容TID</t>
+  </si>
+  <si>
+    <t>立绘ID</t>
+  </si>
+  <si>
     <t>人物TID</t>
   </si>
   <si>
-    <t>内容TID</t>
-  </si>
-  <si>
-    <t>立绘ID</t>
-  </si>
-  <si>
     <t>称号TID</t>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>id</t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>tachie</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>stage1_before</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_1</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_2</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_3</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_4</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_5</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_6</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_7</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_8</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_9</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_10</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_11</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_12</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_13</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_14</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_15</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_16</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_17</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_18</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_19</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_20</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_21</t>
+  </si>
+  <si>
+    <t>dialog_stg1before_22</t>
+  </si>
+  <si>
+    <t>stage1_before_1</t>
+  </si>
+  <si>
+    <t>stage1_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_1</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_2</t>
+  </si>
+  <si>
+    <t>stage1_before_2</t>
+  </si>
+  <si>
+    <t>stage2_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_3</t>
+  </si>
+  <si>
+    <t>stage1_before_3</t>
+  </si>
+  <si>
+    <t>stage3_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_4</t>
+  </si>
+  <si>
+    <t>stage1_before_4</t>
+  </si>
+  <si>
+    <t>stage4_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_5</t>
+  </si>
+  <si>
+    <t>stage1_before_5</t>
+  </si>
+  <si>
+    <t>stage5_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_6</t>
+  </si>
+  <si>
+    <t>stage1_before_6</t>
+  </si>
+  <si>
+    <t>stage6_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_7</t>
+  </si>
+  <si>
+    <t>stage1_before_7</t>
+  </si>
+  <si>
+    <t>stage7_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_8</t>
+  </si>
+  <si>
+    <t>stage1_before_8</t>
+  </si>
+  <si>
+    <t>stage8_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_9</t>
+  </si>
+  <si>
+    <t>stage1_before_9</t>
+  </si>
+  <si>
+    <t>stage9_after</t>
+  </si>
+  <si>
+    <t>dialog_stg1after_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +285,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -105,35 +292,356 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,9 +664,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -179,20 +929,88 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TID"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>name_keine</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>title_keine</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,31 +1257,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.9090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6363636363636" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.8181818181818" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.8181818181818" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="44.4" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="47" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -515,20 +1336,609 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="str">
+        <f>B4&amp;"_"&amp;C4</f>
+        <v>stage1_before_1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>[1]TID!$A$60</f>
+        <v>name_keine</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>[1]TID!$A$61</f>
+        <v>title_keine</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="str">
+        <f>B5&amp;"_"&amp;C5</f>
+        <v>stage1_before_2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="str">
+        <f t="shared" ref="A6:A28" si="0">B6&amp;"_"&amp;C6</f>
+        <v>stage1_before_3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_before_22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2">
         <v>9</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Dialog.xlsx
+++ b/settings/data/Dialog.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="67">
   <si>
     <t>string</t>
   </si>
@@ -80,13 +80,16 @@
     <t>称号TID</t>
   </si>
   <si>
+    <t>切换BGM</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>dialog</t>
   </si>
   <si>
-    <t>number</t>
+    <t>*</t>
   </si>
   <si>
     <t>position</t>
@@ -104,6 +107,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>bgm</t>
+  </si>
+  <si>
     <t>stage1_before</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
     <t>dialog_stg1before_1</t>
   </si>
   <si>
+    <t>temp_keine</t>
+  </si>
+  <si>
     <t>dialog_stg1before_2</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
     <t>dialog_stg1before_3</t>
   </si>
   <si>
+    <t>temp_daiyousei</t>
+  </si>
+  <si>
     <t>dialog_stg1before_4</t>
   </si>
   <si>
@@ -179,6 +191,9 @@
     <t>dialog_stg1before_22</t>
   </si>
   <si>
+    <t>bgm_stage1_boss</t>
+  </si>
+  <si>
     <t>stage1_before_1</t>
   </si>
   <si>
@@ -194,70 +209,46 @@
     <t>stage1_before_2</t>
   </si>
   <si>
-    <t>stage2_after</t>
-  </si>
-  <si>
     <t>dialog_stg1after_3</t>
   </si>
   <si>
     <t>stage1_before_3</t>
   </si>
   <si>
-    <t>stage3_after</t>
-  </si>
-  <si>
     <t>dialog_stg1after_4</t>
   </si>
   <si>
     <t>stage1_before_4</t>
   </si>
   <si>
-    <t>stage4_after</t>
-  </si>
-  <si>
     <t>dialog_stg1after_5</t>
   </si>
   <si>
     <t>stage1_before_5</t>
   </si>
   <si>
-    <t>stage5_after</t>
-  </si>
-  <si>
     <t>dialog_stg1after_6</t>
   </si>
   <si>
     <t>stage1_before_6</t>
   </si>
   <si>
-    <t>stage6_after</t>
-  </si>
-  <si>
     <t>dialog_stg1after_7</t>
   </si>
   <si>
     <t>stage1_before_7</t>
   </si>
   <si>
-    <t>stage7_after</t>
-  </si>
-  <si>
     <t>dialog_stg1after_8</t>
   </si>
   <si>
     <t>stage1_before_8</t>
   </si>
   <si>
-    <t>stage8_after</t>
-  </si>
-  <si>
     <t>dialog_stg1after_9</t>
   </si>
   <si>
     <t>stage1_before_9</t>
-  </si>
-  <si>
-    <t>stage9_after</t>
   </si>
   <si>
     <t>dialog_stg1after_10</t>
@@ -1263,28 +1254,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.9090909090909" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.4545454545455" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6363636363636" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.8181818181818" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.8181818181818" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.7272727272727" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.8181818181818" style="2" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="18.9090909090909" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,8 +1301,11 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="47" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="47" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1335,31 +1330,37 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1368,16 +1369,19 @@
         <v>stage1_before_1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>[1]TID!$A$60</f>
@@ -1388,552 +1392,656 @@
         <v>title_keine</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="str">
         <f>B5&amp;"_"&amp;C5</f>
         <v>stage1_before_2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>[1]TID!$A$60</f>
+        <v>name_keine</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>[1]TID!$A$61</f>
+        <v>title_keine</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A28" si="0">B6&amp;"_"&amp;C6</f>
         <v>stage1_before_3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2">
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/Dialog.xlsx
+++ b/settings/data/Dialog.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="dialog_s1" sheetId="1" r:id="rId1"/>
+    <sheet name="dialog_s1b" sheetId="1" r:id="rId1"/>
+    <sheet name="dialog_s1a" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
   <si>
     <t>string</t>
   </si>
@@ -194,9 +195,6 @@
     <t>bgm_stage1_boss</t>
   </si>
   <si>
-    <t>stage1_before_1</t>
-  </si>
-  <si>
     <t>stage1_after</t>
   </si>
   <si>
@@ -206,49 +204,25 @@
     <t>dialog_stg1after_2</t>
   </si>
   <si>
-    <t>stage1_before_2</t>
-  </si>
-  <si>
     <t>dialog_stg1after_3</t>
   </si>
   <si>
-    <t>stage1_before_3</t>
-  </si>
-  <si>
     <t>dialog_stg1after_4</t>
   </si>
   <si>
-    <t>stage1_before_4</t>
-  </si>
-  <si>
     <t>dialog_stg1after_5</t>
   </si>
   <si>
-    <t>stage1_before_5</t>
-  </si>
-  <si>
     <t>dialog_stg1after_6</t>
   </si>
   <si>
-    <t>stage1_before_6</t>
-  </si>
-  <si>
     <t>dialog_stg1after_7</t>
   </si>
   <si>
-    <t>stage1_before_7</t>
-  </si>
-  <si>
     <t>dialog_stg1after_8</t>
   </si>
   <si>
-    <t>stage1_before_8</t>
-  </si>
-  <si>
     <t>dialog_stg1after_9</t>
-  </si>
-  <si>
-    <t>stage1_before_9</t>
   </si>
   <si>
     <t>dialog_stg1after_10</t>
@@ -1254,12 +1228,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1363,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="str">
         <f>B4&amp;"_"&amp;C4</f>
         <v>stage1_before_1</v>
@@ -1392,7 +1366,7 @@
         <v>title_keine</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="str">
         <f>B5&amp;"_"&amp;C5</f>
         <v>stage1_before_2</v>
@@ -1421,7 +1395,7 @@
         <v>title_keine</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A28" si="0">B6&amp;"_"&amp;C6</f>
         <v>stage1_before_3</v>
@@ -1442,7 +1416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_4</v>
@@ -1463,7 +1437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_5</v>
@@ -1484,7 +1458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_6</v>
@@ -1505,7 +1479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_7</v>
@@ -1526,7 +1500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_8</v>
@@ -1547,7 +1521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_9</v>
@@ -1568,7 +1542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_10</v>
@@ -1589,7 +1563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_11</v>
@@ -1610,7 +1584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_12</v>
@@ -1631,7 +1605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_13</v>
@@ -1652,7 +1626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_14</v>
@@ -1673,7 +1647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_15</v>
@@ -1694,7 +1668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_16</v>
@@ -1715,7 +1689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_17</v>
@@ -1736,7 +1710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_18</v>
@@ -1757,7 +1731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_19</v>
@@ -1778,7 +1752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_20</v>
@@ -1799,7 +1773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>stage1_before_21</v>
@@ -1844,203 +1818,332 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:6">
-      <c r="A26" s="2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.9090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.4545454545455" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6363636363636" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.8181818181818" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.7272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.8181818181818" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.9090909090909" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="47" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
+      <c r="A4" s="2" t="str">
+        <f t="shared" ref="A4:A13" si="0">B4&amp;"_"&amp;C4</f>
+        <v>stage1_after_1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="A5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:6">
-      <c r="A27" s="2" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>stage1_after_10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="2">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="2">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
